--- a/hebrewOutputs/hebrewComparison_11.xlsx
+++ b/hebrewOutputs/hebrewComparison_11.xlsx
@@ -52,6 +52,9 @@
     <t>gives-med</t>
   </si>
   <si>
+    <t>r/o</t>
+  </si>
+  <si>
     <t>(לא נשמע)</t>
   </si>
   <si>
@@ -70,111 +73,105 @@
     <t>gives-other</t>
   </si>
   <si>
+    <t>OK, אני רוצה רק לדעת קצת דברים עליך, קודם כל אחר כך אני מסביר לך</t>
+  </si>
+  <si>
+    <t>orient</t>
+  </si>
+  <si>
+    <t>הילד שלך הוא טוב, הוא בסדר גמור</t>
+  </si>
+  <si>
+    <t>יופי</t>
+  </si>
+  <si>
+    <t>bc</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מחכים עכשיו למכתב שחרור, </t>
+  </si>
+  <si>
+    <t>אנחנו אבל אני רוצה להסביר לך כמה דברים</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>א.... יש לך עוד ילדים חוץ מ....</t>
+  </si>
+  <si>
     <t>[?]med</t>
   </si>
   <si>
-    <t>OK, אני רוצה רק לדעת קצת דברים עליך, קודם כל אחר כך אני מסביר לך</t>
-  </si>
-  <si>
-    <t>orient</t>
-  </si>
-  <si>
-    <t>הילד שלך הוא טוב, הוא בסדר גמור</t>
-  </si>
-  <si>
-    <t>r/o</t>
-  </si>
-  <si>
-    <t>יופי</t>
-  </si>
-  <si>
-    <t>bc</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">מחכים עכשיו למכתב שחרור, </t>
-  </si>
-  <si>
-    <t>אנחנו אבל אני רוצה להסביר לך כמה דברים</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>א.... יש לך עוד ילדים חוץ מ....</t>
-  </si>
-  <si>
     <t>יש לי עוד....</t>
   </si>
   <si>
+    <t>trans</t>
+  </si>
+  <si>
+    <t>כן? כמה?</t>
+  </si>
+  <si>
+    <t>..ילדה קטנה</t>
+  </si>
+  <si>
+    <t>כמה?</t>
+  </si>
+  <si>
+    <t>בת שנתיים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בת שנתיים, </t>
+  </si>
+  <si>
+    <t>checks</t>
+  </si>
+  <si>
+    <t>OK אני רוצה להסביר לך, בקשר למשפחה שלכם, יש אנשים שהם חולים בסוכרת אולי? אמא...</t>
+  </si>
+  <si>
+    <t>לא</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אמא שלך? </t>
+  </si>
+  <si>
+    <t>מצד של אבא?</t>
+  </si>
+  <si>
+    <t>אף אחד,</t>
+  </si>
+  <si>
+    <t>למה אתה שואל?</t>
+  </si>
+  <si>
+    <t>?other</t>
+  </si>
+  <si>
+    <t>יש לך איזה מחלות של סוכרת?</t>
+  </si>
+  <si>
+    <t>לא, בכלל לא,</t>
+  </si>
+  <si>
+    <t>אה,</t>
+  </si>
+  <si>
+    <t>למה?</t>
+  </si>
+  <si>
+    <t>אז OK, הילד, הילד שלך קודם כל יש לו מחלה של סוכרת ב....</t>
+  </si>
+  <si>
+    <t>לבן שלי?</t>
+  </si>
+  <si>
     <t>disagree</t>
   </si>
   <si>
-    <t>כן? כמה?</t>
-  </si>
-  <si>
-    <t>trans</t>
-  </si>
-  <si>
-    <t>..ילדה קטנה</t>
-  </si>
-  <si>
-    <t>כמה?</t>
-  </si>
-  <si>
-    <t>בת שנתיים</t>
-  </si>
-  <si>
-    <t xml:space="preserve">בת שנתיים, </t>
-  </si>
-  <si>
-    <t>checks</t>
-  </si>
-  <si>
-    <t>OK אני רוצה להסביר לך, בקשר למשפחה שלכם, יש אנשים שהם חולים בסוכרת אולי? אמא...</t>
-  </si>
-  <si>
-    <t>לא</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אמא שלך? </t>
-  </si>
-  <si>
-    <t>מצד של אבא?</t>
-  </si>
-  <si>
-    <t>אף אחד,</t>
-  </si>
-  <si>
-    <t>למה אתה שואל?</t>
-  </si>
-  <si>
-    <t>?other</t>
-  </si>
-  <si>
-    <t>יש לך איזה מחלות של סוכרת?</t>
-  </si>
-  <si>
-    <t>?opinion</t>
-  </si>
-  <si>
-    <t>לא, בכלל לא,</t>
-  </si>
-  <si>
-    <t>אה,</t>
-  </si>
-  <si>
-    <t>למה?</t>
-  </si>
-  <si>
-    <t>אז OK, הילד, הילד שלך קודם כל יש לו מחלה של סוכרת ב....</t>
-  </si>
-  <si>
-    <t>לבן שלי?</t>
-  </si>
-  <si>
     <t>כן,</t>
   </si>
   <si>
@@ -235,6 +232,9 @@
     <t xml:space="preserve"> אבל זה... אפשרי, שיהיה אחד מהמשפחה אולי מהסבים שלך או... מאמא שלך או מאבא,</t>
   </si>
   <si>
+    <t>approve</t>
+  </si>
+  <si>
     <t xml:space="preserve">מ.... מי מה....מה מצאתם? </t>
   </si>
   <si>
@@ -433,6 +433,9 @@
     <t xml:space="preserve">זה בהתחלה זה... כל הזמן ולאחר כך אנחנו נראה, את תבואו כמה... כמה פעמים לבית חולים לעשות כמה בדיקות, לראות אם זה השתפר לא השתפר ואז אנחנו נתחיל לתת לו כמה תרופות _, </t>
   </si>
   <si>
+    <t>partner</t>
+  </si>
+  <si>
     <t>זה לכל החיים</t>
   </si>
   <si>
@@ -464,9 +467,6 @@
   </si>
   <si>
     <t>זה טוב שאת הבאת אותו היום, זה טוב שזה יותר מוקדם, כי זה מוקדם זה בהתחלה, א..... ואנחנו... באמת זה מאוד טוב שעזרת לנו עזרת לנו, את ידעת את הרגשת את זה הבאת אותו לבית חולים, את עזרת לנו ב....</t>
-  </si>
-  <si>
-    <t>approve</t>
   </si>
   <si>
     <t>איזה קשה זה לילד בן 5 להגיד אל תאכל את זה אל תאכל את זה... אל תאכל את זה... זה...</t>
@@ -935,23 +935,23 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -973,10 +973,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -998,26 +998,26 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -1039,24 +1039,24 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
         <v>29</v>
       </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1075,37 +1075,37 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -1116,73 +1116,73 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
         <v>37</v>
       </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -1193,29 +1193,29 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
         <v>44</v>
       </c>
-      <c r="B31" t="s">
-        <v>45</v>
-      </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -1226,29 +1226,29 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -1259,40 +1259,40 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
@@ -1303,29 +1303,29 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" t="s">
         <v>56</v>
-      </c>
-      <c r="B41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
@@ -1336,29 +1336,29 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
@@ -1369,40 +1369,40 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
@@ -1413,68 +1413,68 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
         <v>72</v>
-      </c>
-      <c r="B56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1482,7 +1482,7 @@
         <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
@@ -1493,10 +1493,10 @@
         <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1515,7 +1515,7 @@
         <v>77</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C60" t="s">
         <v>78</v>
@@ -1526,10 +1526,10 @@
         <v>79</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C61" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1537,7 +1537,7 @@
         <v>80</v>
       </c>
       <c r="B62" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
@@ -1562,7 +1562,7 @@
         <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1581,10 +1581,10 @@
         <v>84</v>
       </c>
       <c r="B66" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1592,10 +1592,10 @@
         <v>85</v>
       </c>
       <c r="B67" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1603,10 +1603,10 @@
         <v>86</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1614,7 +1614,7 @@
         <v>87</v>
       </c>
       <c r="B69" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C69" t="s">
         <v>11</v>
@@ -1625,10 +1625,10 @@
         <v>88</v>
       </c>
       <c r="B70" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1636,10 +1636,10 @@
         <v>89</v>
       </c>
       <c r="B71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C71" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1650,7 +1650,7 @@
         <v>78</v>
       </c>
       <c r="C72" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1658,10 +1658,10 @@
         <v>91</v>
       </c>
       <c r="B73" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1669,7 +1669,7 @@
         <v>92</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C74" t="s">
         <v>11</v>
@@ -1677,13 +1677,13 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1691,7 +1691,7 @@
         <v>93</v>
       </c>
       <c r="B76" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C76" t="s">
         <v>7</v>
@@ -1702,10 +1702,10 @@
         <v>94</v>
       </c>
       <c r="B77" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C77" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1724,10 +1724,10 @@
         <v>96</v>
       </c>
       <c r="B79" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C79" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1760,7 +1760,7 @@
         <v>76</v>
       </c>
       <c r="C82" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1768,10 +1768,10 @@
         <v>101</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C83" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1779,10 +1779,10 @@
         <v>102</v>
       </c>
       <c r="B84" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C84" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1790,10 +1790,10 @@
         <v>103</v>
       </c>
       <c r="B85" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C85" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1804,7 +1804,7 @@
         <v>105</v>
       </c>
       <c r="C86" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1812,7 +1812,7 @@
         <v>106</v>
       </c>
       <c r="B87" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C87" t="s">
         <v>78</v>
@@ -1834,10 +1834,10 @@
         <v>109</v>
       </c>
       <c r="B89" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C89" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1856,10 +1856,10 @@
         <v>111</v>
       </c>
       <c r="B91" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1867,10 +1867,10 @@
         <v>112</v>
       </c>
       <c r="B92" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1889,10 +1889,10 @@
         <v>114</v>
       </c>
       <c r="B94" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C94" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1900,10 +1900,10 @@
         <v>115</v>
       </c>
       <c r="B95" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1922,10 +1922,10 @@
         <v>117</v>
       </c>
       <c r="B97" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1933,7 +1933,7 @@
         <v>118</v>
       </c>
       <c r="B98" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C98" t="s">
         <v>11</v>
@@ -1947,7 +1947,7 @@
         <v>78</v>
       </c>
       <c r="C99" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1966,10 +1966,10 @@
         <v>122</v>
       </c>
       <c r="B101" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1980,7 +1980,7 @@
         <v>78</v>
       </c>
       <c r="C102" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1988,10 +1988,10 @@
         <v>124</v>
       </c>
       <c r="B103" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C103" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2002,7 +2002,7 @@
         <v>11</v>
       </c>
       <c r="C104" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2010,7 +2010,7 @@
         <v>126</v>
       </c>
       <c r="B105" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C105" t="s">
         <v>121</v>
@@ -2043,10 +2043,10 @@
         <v>129</v>
       </c>
       <c r="B108" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C108" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2068,7 +2068,7 @@
         <v>76</v>
       </c>
       <c r="C110" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2079,7 +2079,7 @@
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2087,10 +2087,10 @@
         <v>133</v>
       </c>
       <c r="B112" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C112" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2106,13 +2106,13 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B114" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C114" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2120,10 +2120,10 @@
         <v>135</v>
       </c>
       <c r="B115" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C115" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2134,7 +2134,7 @@
         <v>11</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2156,15 +2156,15 @@
         <v>108</v>
       </c>
       <c r="C118" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B119" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C119" t="s">
         <v>7</v>
@@ -2172,21 +2172,21 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B120" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C120" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B121" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C121" t="s">
         <v>7</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B122" t="s">
         <v>11</v>
@@ -2205,21 +2205,21 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B123" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C123" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
+        <v>146</v>
+      </c>
+      <c r="B124" t="s">
         <v>145</v>
-      </c>
-      <c r="B124" t="s">
-        <v>144</v>
       </c>
       <c r="C124" t="s">
         <v>20</v>
@@ -2227,21 +2227,21 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B125" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C125" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B126" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C126" t="s">
         <v>11</v>
@@ -2249,13 +2249,13 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B127" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="C127" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2274,10 +2274,10 @@
         <v>152</v>
       </c>
       <c r="B129" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2299,7 +2299,7 @@
         <v>155</v>
       </c>
       <c r="C131" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2307,10 +2307,10 @@
         <v>156</v>
       </c>
       <c r="B132" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C132" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2343,7 +2343,7 @@
         <v>155</v>
       </c>
       <c r="C135" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2351,7 +2351,7 @@
         <v>160</v>
       </c>
       <c r="B136" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C136" t="s">
         <v>76</v>
@@ -2359,13 +2359,13 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B137" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C137" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2376,7 +2376,7 @@
         <v>78</v>
       </c>
       <c r="C138" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2384,7 +2384,7 @@
         <v>162</v>
       </c>
       <c r="B139" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C139" t="s">
         <v>11</v>
@@ -2395,7 +2395,7 @@
         <v>163</v>
       </c>
       <c r="B140" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C140" t="s">
         <v>11</v>
@@ -2409,7 +2409,7 @@
         <v>108</v>
       </c>
       <c r="C141" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2420,7 +2420,7 @@
         <v>166</v>
       </c>
       <c r="C142" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2431,7 +2431,7 @@
         <v>108</v>
       </c>
       <c r="C143" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2439,10 +2439,10 @@
         <v>168</v>
       </c>
       <c r="B144" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C144" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2450,10 +2450,10 @@
         <v>169</v>
       </c>
       <c r="B145" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="C145" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
